--- a/StructureDefinition-pco-practitioner-gas-score.xlsx
+++ b/StructureDefinition-pco-practitioner-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T18:33:54+00:00</t>
+    <t>2024-08-07T20:05:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-practitioner-gas-score.xlsx
+++ b/StructureDefinition-pco-practitioner-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T20:05:12+00:00</t>
+    <t>2024-08-08T15:53:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-practitioner-gas-score.xlsx
+++ b/StructureDefinition-pco-practitioner-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T15:53:25+00:00</t>
+    <t>2024-08-08T17:33:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-practitioner-gas-score.xlsx
+++ b/StructureDefinition-pco-practitioner-gas-score.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="475">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T17:33:11+00:00</t>
+    <t>2024-08-13T17:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -607,9 +607,6 @@
   </si>
   <si>
     <t>Observation.category</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -688,15 +685,10 @@
     <t>pcoCategory</t>
   </si>
   <si>
-    <t>Person-Centered Outcomes</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/pco"/&gt;
-    &lt;code value="person-centered"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
+    <t>Person-Centered Outcome category</t>
+  </si>
+  <si>
+    <t>http://mtnlotus.com/uv/pco/ValueSet/pco-category-valueset</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -3595,7 +3587,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -3610,19 +3602,19 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
@@ -3650,23 +3642,23 @@
         <v>116</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB15" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>189</v>
@@ -3693,10 +3685,10 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3704,13 +3696,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>189</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3732,19 +3724,19 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="O16" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -3754,7 +3746,7 @@
         <v>82</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>82</v>
@@ -3772,10 +3764,10 @@
         <v>116</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -3817,10 +3809,10 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -3828,13 +3820,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>189</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>82</v>
@@ -3856,19 +3848,19 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="M17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -3896,10 +3888,10 @@
         <v>181</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Z17" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -3941,10 +3933,10 @@
         <v>82</v>
       </c>
       <c r="AN17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>82</v>
@@ -3952,23 +3944,23 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>189</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>93</v>
@@ -3980,19 +3972,19 @@
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -4002,7 +3994,7 @@
         <v>82</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>82</v>
@@ -4019,11 +4011,9 @@
       <c r="X18" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>196</v>
-      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -4065,10 +4055,10 @@
         <v>82</v>
       </c>
       <c r="AN18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AO18" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>82</v>
@@ -4076,14 +4066,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4102,19 +4092,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4124,7 +4114,7 @@
         <v>82</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>82</v>
@@ -4143,7 +4133,7 @@
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>82</v>
@@ -4161,7 +4151,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>92</v>
@@ -4176,30 +4166,30 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AO19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>229</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4222,19 +4212,19 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4283,7 +4273,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4298,19 +4288,19 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4318,10 +4308,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4344,16 +4334,16 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4403,7 +4393,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4424,13 +4414,13 @@
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4438,14 +4428,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4464,19 +4454,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4525,7 +4515,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4540,19 +4530,19 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4560,14 +4550,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4586,19 +4576,19 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4635,17 +4625,17 @@
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4654,25 +4644,25 @@
         <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AJ23" t="s" s="2">
+      <c r="AK23" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AL23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4680,16 +4670,16 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C24" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="D24" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4708,19 +4698,19 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M24" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4769,7 +4759,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4778,25 +4768,25 @@
         <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="AK24" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -4804,10 +4794,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4830,16 +4820,16 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4889,7 +4879,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4910,13 +4900,13 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>82</v>
@@ -4924,10 +4914,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4950,19 +4940,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5011,7 +5001,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5026,19 +5016,19 @@
         <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AL26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>82</v>
@@ -5046,10 +5036,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5072,19 +5062,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5113,7 +5103,7 @@
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5131,7 +5121,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5140,7 +5130,7 @@
         <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>104</v>
@@ -5149,27 +5139,27 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5192,19 +5182,19 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5229,14 +5219,14 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
       </c>
@@ -5253,7 +5243,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5262,7 +5252,7 @@
         <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>104</v>
@@ -5277,7 +5267,7 @@
         <v>135</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5288,14 +5278,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5314,19 +5304,19 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5351,14 +5341,14 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>321</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5375,7 +5365,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5393,27 +5383,27 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP29" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5436,19 +5426,19 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5497,7 +5487,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5518,10 +5508,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5532,10 +5522,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5558,16 +5548,16 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5593,14 +5583,14 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
       </c>
@@ -5617,7 +5607,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5635,27 +5625,27 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP31" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5678,19 +5668,19 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -5715,14 +5705,14 @@
         <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5739,7 +5729,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5760,10 +5750,10 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -5774,10 +5764,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5800,16 +5790,16 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5859,7 +5849,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5877,27 +5867,27 @@
         <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP33" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>362</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5920,16 +5910,16 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5979,7 +5969,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5997,27 +5987,27 @@
         <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP34" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>371</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6040,19 +6030,19 @@
         <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6101,7 +6091,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6113,19 +6103,19 @@
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6136,10 +6126,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6162,13 +6152,13 @@
         <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6219,7 +6209,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6243,7 +6233,7 @@
         <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6254,10 +6244,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6286,7 +6276,7 @@
         <v>139</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>141</v>
@@ -6339,7 +6329,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6363,7 +6353,7 @@
         <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6374,14 +6364,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6403,10 +6393,10 @@
         <v>138</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>141</v>
@@ -6461,7 +6451,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6496,10 +6486,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6522,13 +6512,13 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6579,7 +6569,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6588,7 +6578,7 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>104</v>
@@ -6600,10 +6590,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6614,10 +6604,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6640,13 +6630,13 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6697,7 +6687,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6706,7 +6696,7 @@
         <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>104</v>
@@ -6718,10 +6708,10 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6732,10 +6722,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6758,19 +6748,19 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6798,11 +6788,11 @@
         <v>116</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
       </c>
@@ -6819,7 +6809,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6837,13 +6827,13 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AM41" t="s" s="2">
-        <v>414</v>
-      </c>
       <c r="AN41" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6854,10 +6844,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6880,19 +6870,19 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -6917,14 +6907,14 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
       </c>
@@ -6941,7 +6931,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6959,13 +6949,13 @@
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AM42" t="s" s="2">
-        <v>414</v>
-      </c>
       <c r="AN42" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6976,10 +6966,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7002,17 +6992,17 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7061,7 +7051,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7085,7 +7075,7 @@
         <v>82</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7096,10 +7086,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7122,13 +7112,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7179,7 +7169,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7200,10 +7190,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7214,10 +7204,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7240,16 +7230,16 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7299,7 +7289,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7320,10 +7310,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7334,10 +7324,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7360,16 +7350,16 @@
         <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7419,7 +7409,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7440,10 +7430,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7454,10 +7444,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7480,19 +7470,19 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7541,7 +7531,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7562,10 +7552,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7576,10 +7566,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7602,13 +7592,13 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7659,7 +7649,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7683,7 +7673,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7694,10 +7684,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7726,7 +7716,7 @@
         <v>139</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>141</v>
@@ -7779,7 +7769,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7803,7 +7793,7 @@
         <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -7814,14 +7804,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7843,10 +7833,10 @@
         <v>138</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>141</v>
@@ -7901,7 +7891,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7936,10 +7926,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7962,19 +7952,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="O51" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7999,14 +7989,14 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8023,7 +8013,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>92</v>
@@ -8041,16 +8031,16 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>82</v>
@@ -8058,10 +8048,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8084,19 +8074,19 @@
         <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="O52" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8145,7 +8135,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8163,27 +8153,27 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP52" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8206,19 +8196,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="N53" t="s" s="2">
-        <v>470</v>
-      </c>
       <c r="O53" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8243,14 +8233,14 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="Y53" t="s" s="2">
+      <c r="Z53" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8267,7 +8257,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8276,7 +8266,7 @@
         <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>104</v>
@@ -8291,7 +8281,7 @@
         <v>135</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8302,14 +8292,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8328,19 +8318,19 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8365,14 +8355,14 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>321</v>
-      </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8389,7 +8379,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8407,27 +8397,27 @@
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP54" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8453,16 +8443,16 @@
         <v>83</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>475</v>
-      </c>
       <c r="N55" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8511,7 +8501,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8532,10 +8522,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-pco-practitioner-gas-score.xlsx
+++ b/StructureDefinition-pco-practitioner-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T17:00:10+00:00</t>
+    <t>2024-08-13T17:11:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-practitioner-gas-score.xlsx
+++ b/StructureDefinition-pco-practitioner-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T17:11:01+00:00</t>
+    <t>2024-08-13T22:41:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -712,7 +712,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
+    &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/pco-gas-codes-temporary"/&gt;
     &lt;code value="goal-attainment-scaling"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/StructureDefinition-pco-practitioner-gas-score.xlsx
+++ b/StructureDefinition-pco-practitioner-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T22:41:25+00:00</t>
+    <t>2024-08-15T16:20:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-practitioner-gas-score.xlsx
+++ b/StructureDefinition-pco-practitioner-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-15T16:20:36+00:00</t>
+    <t>2024-08-17T01:13:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-practitioner-gas-score.xlsx
+++ b/StructureDefinition-pco-practitioner-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:13:31+00:00</t>
+    <t>2024-08-17T01:14:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-practitioner-gas-score.xlsx
+++ b/StructureDefinition-pco-practitioner-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:14:43+00:00</t>
+    <t>2024-08-17T01:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-practitioner-gas-score.xlsx
+++ b/StructureDefinition-pco-practitioner-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:18:03+00:00</t>
+    <t>2024-08-19T20:32:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-practitioner-gas-score.xlsx
+++ b/StructureDefinition-pco-practitioner-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-19T20:32:01+00:00</t>
+    <t>2024-08-20T21:03:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-practitioner-gas-score.xlsx
+++ b/StructureDefinition-pco-practitioner-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:03:59+00:00</t>
+    <t>2024-08-21T16:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-practitioner-gas-score.xlsx
+++ b/StructureDefinition-pco-practitioner-gas-score.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="471">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-21T16:21:33+00:00</t>
+    <t>2024-08-27T18:37:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-screening-assessment</t>
+    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-progress-score-observation</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -679,18 +679,6 @@
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-observation-category</t>
   </si>
   <si>
-    <t>Observation.category:pcoCategory</t>
-  </si>
-  <si>
-    <t>pcoCategory</t>
-  </si>
-  <si>
-    <t>Person-Centered Outcome category</t>
-  </si>
-  <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/pco-category-valueset</t>
-  </si>
-  <si>
     <t>Observation.code</t>
   </si>
   <si>
@@ -773,11 +761,11 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-goal)
+    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-gas-goal-profile)
 </t>
   </si>
   <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
+    <t>The goal whose progress was scored</t>
   </si>
   <si>
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
@@ -880,7 +868,7 @@
     <t>effectiveDateTime</t>
   </si>
   <si>
-    <t>Time the score was assessed</t>
+    <t>When the score was assessed</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -954,7 +942,7 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/practitioner-gas-followup-vs</t>
+    <t>http://mtnlotus.com/uv/pco/ValueSet/practitioner-gas-followup</t>
   </si>
   <si>
     <t>obs-7
@@ -1832,7 +1820,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP55"/>
+  <dimension ref="A1:AP54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3947,20 +3935,18 @@
         <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C18" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>93</v>
@@ -3969,7 +3955,7 @@
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>190</v>
@@ -3978,13 +3964,13 @@
         <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -3994,7 +3980,7 @@
         <v>82</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>82</v>
@@ -4013,7 +3999,7 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -4031,13 +4017,13 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>82</v>
@@ -4046,34 +4032,34 @@
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>82</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4092,19 +4078,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4114,7 +4100,7 @@
         <v>82</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>82</v>
@@ -4129,11 +4115,13 @@
         <v>82</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>82</v>
@@ -4151,10 +4139,10 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>92</v>
@@ -4166,30 +4154,30 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>228</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4212,20 +4200,18 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>82</v>
       </c>
@@ -4273,13 +4259,13 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>82</v>
@@ -4288,19 +4274,19 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4308,24 +4294,24 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>82</v>
+        <v>242</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>82</v>
@@ -4334,18 +4320,20 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
       </c>
@@ -4393,13 +4381,13 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>82</v>
@@ -4408,19 +4396,19 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>82</v>
+        <v>248</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4428,24 +4416,24 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -4454,19 +4442,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4503,19 +4491,17 @@
         <v>82</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4524,25 +4510,25 @@
         <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4550,14 +4536,16 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="D23" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4576,19 +4564,19 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4625,17 +4613,19 @@
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>264</v>
+        <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4644,25 +4634,25 @@
         <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AJ23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4670,26 +4660,24 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>257</v>
+        <v>82</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -4698,20 +4686,18 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="N24" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
@@ -4759,7 +4745,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4768,25 +4754,25 @@
         <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>265</v>
+        <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>266</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>267</v>
+        <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -4794,10 +4780,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4808,10 +4794,10 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>82</v>
@@ -4820,18 +4806,20 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
       </c>
@@ -4879,13 +4867,13 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
@@ -4894,19 +4882,19 @@
         <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>82</v>
@@ -4914,10 +4902,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4925,10 +4913,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>93</v>
@@ -4940,19 +4928,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>283</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4977,13 +4965,11 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -5001,45 +4987,45 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>82</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5047,7 +5033,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>92</v>
@@ -5059,22 +5045,22 @@
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5099,11 +5085,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5121,7 +5109,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5130,7 +5118,7 @@
         <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>104</v>
@@ -5139,41 +5127,41 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>299</v>
+        <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>300</v>
+        <v>135</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>82</v>
+        <v>310</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>82</v>
@@ -5185,16 +5173,16 @@
         <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5219,40 +5207,40 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>311</v>
+        <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>104</v>
@@ -5261,31 +5249,31 @@
         <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>82</v>
+        <v>317</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>135</v>
+        <v>318</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>314</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5304,19 +5292,19 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>322</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5341,13 +5329,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5365,7 +5353,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5383,27 +5371,27 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>324</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5414,7 +5402,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
@@ -5426,20 +5414,18 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>326</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5463,13 +5449,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>82</v>
+        <v>333</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>82</v>
+        <v>335</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5487,13 +5473,13 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
@@ -5505,27 +5491,27 @@
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>82</v>
+        <v>336</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>82</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5551,15 +5537,17 @@
         <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
       </c>
@@ -5583,13 +5571,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5607,7 +5595,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5625,27 +5613,27 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>340</v>
+        <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5668,20 +5656,18 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5705,31 +5691,31 @@
         <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>337</v>
+        <v>82</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5747,27 +5733,27 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>82</v>
+        <v>354</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>82</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5790,16 +5776,16 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5849,7 +5835,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5867,27 +5853,27 @@
         <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5898,7 +5884,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -5910,18 +5896,20 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
@@ -5969,45 +5957,45 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>104</v>
+        <v>373</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6018,7 +6006,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6030,20 +6018,16 @@
         <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6091,19 +6075,19 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6112,10 +6096,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6126,21 +6110,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
@@ -6152,15 +6136,17 @@
         <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>381</v>
+        <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>382</v>
+        <v>139</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6215,13 +6201,13 @@
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
@@ -6233,7 +6219,7 @@
         <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6244,14 +6230,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>137</v>
+        <v>386</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6264,24 +6250,26 @@
         <v>82</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>139</v>
+        <v>387</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6329,7 +6317,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6353,7 +6341,7 @@
         <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>385</v>
+        <v>135</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6364,46 +6352,42 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>138</v>
+        <v>391</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6451,19 +6435,19 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
@@ -6472,10 +6456,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>82</v>
+        <v>395</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>135</v>
+        <v>396</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6486,10 +6470,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6512,13 +6496,13 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6569,7 +6553,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6578,7 +6562,7 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>104</v>
@@ -6590,7 +6574,7 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>400</v>
@@ -6630,7 +6614,7 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>395</v>
+        <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>402</v>
@@ -6638,8 +6622,12 @@
       <c r="M40" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6663,13 +6651,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>82</v>
+        <v>406</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>82</v>
+        <v>407</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6696,7 +6684,7 @@
         <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>104</v>
@@ -6705,13 +6693,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>82</v>
+        <v>408</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>404</v>
+        <v>319</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6722,10 +6710,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6736,7 +6724,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -6751,16 +6739,16 @@
         <v>190</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6785,37 +6773,37 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>116</v>
+        <v>333</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
@@ -6827,13 +6815,13 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6844,10 +6832,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6858,7 +6846,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -6870,19 +6858,17 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>190</v>
+        <v>418</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -6907,13 +6893,13 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>337</v>
+        <v>82</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>419</v>
+        <v>82</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>420</v>
+        <v>82</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -6931,13 +6917,13 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
@@ -6949,13 +6935,13 @@
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>412</v>
+        <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>413</v>
+        <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>323</v>
+        <v>422</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6966,10 +6952,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6992,18 +6978,16 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>422</v>
+        <v>377</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>425</v>
-      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7051,7 +7035,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7072,7 +7056,7 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>82</v>
+        <v>395</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>426</v>
@@ -7100,27 +7084,29 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7175,7 +7161,7 @@
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
@@ -7190,10 +7176,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7204,10 +7190,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7230,16 +7216,16 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7289,7 +7275,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7310,10 +7296,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7324,10 +7310,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7341,7 +7327,7 @@
         <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -7350,18 +7336,20 @@
         <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>439</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7409,7 +7397,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7430,10 +7418,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7444,10 +7432,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7458,7 +7446,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7467,23 +7455,19 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>445</v>
+        <v>378</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7531,19 +7515,19 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>444</v>
+        <v>380</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -7552,10 +7536,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>449</v>
+        <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>450</v>
+        <v>381</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7566,21 +7550,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -7592,15 +7576,17 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>381</v>
+        <v>138</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>382</v>
+        <v>139</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7655,13 +7641,13 @@
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -7673,7 +7659,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7684,14 +7670,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>137</v>
+        <v>386</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7704,24 +7690,26 @@
         <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>139</v>
+        <v>387</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
@@ -7769,7 +7757,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7793,7 +7781,7 @@
         <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>385</v>
+        <v>135</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -7804,45 +7792,45 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
+        <v>451</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>392</v>
+        <v>452</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>141</v>
+        <v>453</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7867,13 +7855,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>82</v>
+        <v>333</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>82</v>
+        <v>454</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7891,34 +7879,34 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>82</v>
+        <v>456</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>135</v>
+        <v>222</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>82</v>
@@ -7926,10 +7914,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7937,7 +7925,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>92</v>
@@ -7952,19 +7940,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>190</v>
+        <v>458</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>456</v>
+        <v>290</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7989,13 +7977,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>337</v>
+        <v>82</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>458</v>
+        <v>82</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>459</v>
+        <v>82</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8013,10 +8001,10 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>92</v>
@@ -8031,27 +8019,27 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>226</v>
+        <v>297</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>82</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8071,22 +8059,22 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>462</v>
+        <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>463</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>294</v>
+        <v>464</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8111,13 +8099,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>82</v>
+        <v>304</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>82</v>
+        <v>305</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>82</v>
+        <v>306</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8135,7 +8123,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8144,7 +8132,7 @@
         <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>104</v>
@@ -8153,38 +8141,38 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>300</v>
+        <v>135</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>82</v>
+        <v>310</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>82</v>
@@ -8199,16 +8187,16 @@
         <v>190</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>467</v>
+        <v>311</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>468</v>
+        <v>312</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>469</v>
+        <v>313</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8233,13 +8221,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8257,16 +8245,16 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>470</v>
+        <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>104</v>
@@ -8275,31 +8263,31 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>82</v>
+        <v>317</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>135</v>
+        <v>318</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>314</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8318,19 +8306,19 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>315</v>
+        <v>469</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>316</v>
+        <v>470</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>318</v>
+        <v>372</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8355,13 +8343,13 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
@@ -8379,7 +8367,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8397,145 +8385,23 @@
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>323</v>
+        <v>375</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP55" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP55">
+  <autoFilter ref="A1:AP54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8545,7 +8411,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pco-practitioner-gas-score.xlsx
+++ b/StructureDefinition-pco-practitioner-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T18:37:51+00:00</t>
+    <t>2024-08-28T01:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-practitioner-gas-score.xlsx
+++ b/StructureDefinition-pco-practitioner-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T01:59:14+00:00</t>
+    <t>2024-08-28T17:18:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-practitioner-gas-score.xlsx
+++ b/StructureDefinition-pco-practitioner-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T17:18:00+00:00</t>
+    <t>2024-08-28T19:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-practitioner-gas-score.xlsx
+++ b/StructureDefinition-pco-practitioner-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T19:37:38+00:00</t>
+    <t>2024-08-28T21:15:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-practitioner-gas-score.xlsx
+++ b/StructureDefinition-pco-practitioner-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T21:15:57+00:00</t>
+    <t>2024-08-28T22:24:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-practitioner-gas-score.xlsx
+++ b/StructureDefinition-pco-practitioner-gas-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T22:24:15+00:00</t>
+    <t>2024-09-06T15:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
